--- a/£JDW.xlsx
+++ b/£JDW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670A2B6-BB35-471E-B927-C632F377C54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B8F8F0-B4AB-4DA6-802F-AC102570F193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{90941387-8F98-4C18-B3F2-4A3384C73463}"/>
   </bookViews>
@@ -1854,10 +1854,10 @@
   <dimension ref="A1:AO87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC33" sqref="AC33"/>
+      <selection pane="bottomRight" activeCell="Z72" sqref="Z53:AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
